--- a/VersionRecords/Version 5.1.9.3 20161227/版本Bug和特性计划及评审表v5.1.9.3_极光组.xlsx
+++ b/VersionRecords/Version 5.1.9.3 20161227/版本Bug和特性计划及评审表v5.1.9.3_极光组.xlsx
@@ -1093,6 +1093,9 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1118,9 +1121,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1578,7 +1578,7 @@
   <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1694,13 +1694,13 @@
       <c r="G2" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="116">
+      <c r="H2" s="107">
         <v>42731</v>
       </c>
       <c r="I2" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="116">
+      <c r="J2" s="107">
         <v>42731</v>
       </c>
       <c r="K2" s="38"/>
@@ -1716,7 +1716,7 @@
       <c r="O2" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="116">
+      <c r="P2" s="107">
         <v>42731</v>
       </c>
       <c r="Q2" s="47" t="s">
@@ -5677,19 +5677,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -5727,8 +5727,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="109"/>
-      <c r="B3" s="109"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5740,8 +5740,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="110"/>
-      <c r="B4" s="111"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5753,8 +5753,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="109"/>
-      <c r="B5" s="109"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="110"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5766,8 +5766,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="111"/>
-      <c r="B6" s="111"/>
+      <c r="A6" s="112"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5779,8 +5779,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="111"/>
-      <c r="B7" s="111"/>
+      <c r="A7" s="112"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5792,8 +5792,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="111"/>
-      <c r="B8" s="111"/>
+      <c r="A8" s="112"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5805,8 +5805,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="111"/>
-      <c r="B9" s="111"/>
+      <c r="A9" s="112"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5818,8 +5818,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="110"/>
-      <c r="B10" s="110"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5880,36 +5880,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="113"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="114"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="115"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="116"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6194,36 +6194,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="113"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="114"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="115"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="116"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6508,36 +6508,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="113"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="114"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="115"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="116"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6824,36 +6824,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="113"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="114"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="115"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="116"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
